--- a/medicine/Maladies infectieuses/Soberana_Plus/Soberana_Plus.xlsx
+++ b/medicine/Maladies infectieuses/Soberana_Plus/Soberana_Plus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soberana Plus, de son nom technique FINLAY-FR-1A, est un vaccin candidat COVID-19 produit par l'Institut Finlay, un institut de recherche épidémiologique cubain[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soberana Plus, de son nom technique FINLAY-FR-1A, est un vaccin candidat COVID-19 produit par l'Institut Finlay, un institut de recherche épidémiologique cubain.
 </t>
         </is>
       </c>
@@ -511,11 +523,11 @@
           <t>Utilisations médicales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut être utilisé comme troisième dose (rappel) pour le vaccin Soberana 02 à huit semaines[2],[3],[4]. Il est également étudié en tant que vaccin à dose unique indépendant[1].
-Efficacité
-Combiné au vaccin Soberana 02, le rappel montre une efficacité de 91,2 %[5]. L'efficacité contre les maladies graves et la mort est de 100 % pour le schéma hétérologue à trois doses[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être utilisé comme troisième dose (rappel) pour le vaccin Soberana 02 à huit semaines. Il est également étudié en tant que vaccin à dose unique indépendant.
 </t>
         </is>
       </c>
@@ -541,12 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Utilisations médicales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Efficacité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combiné au vaccin Soberana 02, le rappel montre une efficacité de 91,2 %. L'efficacité contre les maladies graves et la mort est de 100 % pour le schéma hétérologue à trois doses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Soberana_Plus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soberana_Plus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Autorisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 20 août 2021, Cuba a approuvé Soberana Plus comme rappel après deux doses de Soberana 02[7]. Le 23 septembre, Cuba a approuvé Soberana Plus comme vaccin pour les personnes précédemment infectées au COVID-19 de plus de 19 ans. Le 7 décembre, l'autorisation a été élargie pour inclure les personnes précédemment infectées au COVID-19 âgées de 2 à 18 ans[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 20 août 2021, Cuba a approuvé Soberana Plus comme rappel après deux doses de Soberana 02. Le 23 septembre, Cuba a approuvé Soberana Plus comme vaccin pour les personnes précédemment infectées au COVID-19 de plus de 19 ans. Le 7 décembre, l'autorisation a été élargie pour inclure les personnes précédemment infectées au COVID-19 âgées de 2 à 18 ans.
 </t>
         </is>
       </c>
